--- a/HtsFile.xlsx
+++ b/HtsFile.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="387">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -189,7 +189,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -221,6 +221,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>DocumentReference.implicitRules</t>
   </si>
   <si>
@@ -343,6 +347,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>genomeAssembly</t>
   </si>
   <si>
@@ -360,10 +368,6 @@
 </t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>DocumentReference.modifierExtension</t>
   </si>
   <si>
@@ -467,7 +471,7 @@
     <t>The status of the document reference.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/document-reference-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/document-reference-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -488,7 +492,7 @@
     <t>DocumentReference.docStatus</t>
   </si>
   <si>
-    <t>preliminary | final | appended | amended | entered-in-error</t>
+    <t>preliminary | final | amended | entered-in-error</t>
   </si>
   <si>
     <t>The status of the underlying document.</t>
@@ -500,7 +504,7 @@
     <t>Status of the underlying document.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
   </si>
   <si>
     <t>Composition.status</t>
@@ -771,10 +775,6 @@
     <t>This element is labeled as a modifier because documents that append to other documents are incomplete on their own.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>Composition.relatesTo</t>
   </si>
   <si>
@@ -785,10 +785,6 @@
   </si>
   <si>
     <t>DocumentReference.relatesTo.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -847,7 +843,7 @@
     <t>The type of relationship between documents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|4.0.1</t>
   </si>
   <si>
     <t>Composition.relatesTo.code</t>
@@ -1888,7 +1884,7 @@
         <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>43</v>
@@ -1914,7 +1910,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1937,16 +1933,16 @@
         <v>56</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1996,7 +1992,7 @@
         <v>43</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>44</v>
@@ -2008,7 +2004,7 @@
         <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>43</v>
@@ -2034,7 +2030,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2057,16 +2053,16 @@
         <v>43</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2092,13 +2088,13 @@
         <v>43</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>43</v>
@@ -2116,7 +2112,7 @@
         <v>43</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>44</v>
@@ -2128,7 +2124,7 @@
         <v>43</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>43</v>
@@ -2154,11 +2150,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2177,16 +2173,16 @@
         <v>43</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2236,7 +2232,7 @@
         <v>43</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>44</v>
@@ -2248,7 +2244,7 @@
         <v>43</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>43</v>
@@ -2257,7 +2253,7 @@
         <v>43</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>43</v>
@@ -2274,11 +2270,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2297,16 +2293,16 @@
         <v>43</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2356,7 +2352,7 @@
         <v>43</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>44</v>
@@ -2377,7 +2373,7 @@
         <v>43</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>43</v>
@@ -2394,7 +2390,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2417,13 +2413,13 @@
         <v>43</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2462,17 +2458,17 @@
         <v>43</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>44</v>
@@ -2484,7 +2480,7 @@
         <v>43</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>43</v>
@@ -2510,16 +2506,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s" s="2">
         <v>55</v>
@@ -2537,13 +2533,13 @@
         <v>43</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2594,7 +2590,7 @@
         <v>43</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>44</v>
@@ -2603,10 +2599,10 @@
         <v>45</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>43</v>
@@ -2632,11 +2628,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2655,19 +2651,19 @@
         <v>43</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>43</v>
@@ -2716,7 +2712,7 @@
         <v>43</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>44</v>
@@ -2728,7 +2724,7 @@
         <v>43</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>43</v>
@@ -2737,7 +2733,7 @@
         <v>43</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>43</v>
@@ -2754,7 +2750,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2777,19 +2773,19 @@
         <v>56</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>43</v>
@@ -2838,7 +2834,7 @@
         <v>43</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>44</v>
@@ -2850,33 +2846,33 @@
         <v>43</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2899,13 +2895,13 @@
         <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2956,7 +2952,7 @@
         <v>43</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>44</v>
@@ -2968,33 +2964,33 @@
         <v>43</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3017,16 +3013,16 @@
         <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3034,7 +3030,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>43</v>
@@ -3052,13 +3048,13 @@
         <v>43</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>43</v>
@@ -3076,7 +3072,7 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>55</v>
@@ -3088,33 +3084,33 @@
         <v>43</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3137,16 +3133,16 @@
         <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3172,13 +3168,13 @@
         <v>43</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>43</v>
@@ -3196,7 +3192,7 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>44</v>
@@ -3208,25 +3204,25 @@
         <v>43</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>43</v>
@@ -3234,14 +3230,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E16" t="s" s="2">
         <v>55</v>
@@ -3259,19 +3255,19 @@
         <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>43</v>
@@ -3296,13 +3292,13 @@
         <v>43</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>43</v>
@@ -3320,7 +3316,7 @@
         <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
@@ -3332,37 +3328,37 @@
         <v>43</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3381,16 +3377,16 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3416,13 +3412,13 @@
         <v>43</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>43</v>
@@ -3440,7 +3436,7 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>44</v>
@@ -3452,33 +3448,33 @@
         <v>43</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3501,13 +3497,13 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3558,7 +3554,7 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>44</v>
@@ -3570,37 +3566,37 @@
         <v>43</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3619,16 +3615,16 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3678,7 +3674,7 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>44</v>
@@ -3690,22 +3686,22 @@
         <v>43</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>43</v>
@@ -3716,7 +3712,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3739,16 +3735,16 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3798,7 +3794,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -3810,33 +3806,33 @@
         <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3859,16 +3855,16 @@
         <v>43</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3918,7 +3914,7 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>44</v>
@@ -3930,33 +3926,33 @@
         <v>43</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3979,16 +3975,16 @@
         <v>43</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4038,7 +4034,7 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>44</v>
@@ -4050,16 +4046,16 @@
         <v>43</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>43</v>
@@ -4076,7 +4072,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4099,16 +4095,16 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4158,7 +4154,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>44</v>
@@ -4170,7 +4166,7 @@
         <v>43</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>242</v>
+        <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>43</v>
@@ -4219,13 +4215,13 @@
         <v>43</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4276,7 +4272,7 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>44</v>
@@ -4297,7 +4293,7 @@
         <v>43</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>43</v>
@@ -4314,11 +4310,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4337,16 +4333,16 @@
         <v>43</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4396,7 +4392,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>44</v>
@@ -4408,7 +4404,7 @@
         <v>43</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>43</v>
@@ -4417,7 +4413,7 @@
         <v>43</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>43</v>
@@ -4434,11 +4430,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4457,19 +4453,19 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="M26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>43</v>
@@ -4518,7 +4514,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>44</v>
@@ -4530,7 +4526,7 @@
         <v>43</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>43</v>
@@ -4539,7 +4535,7 @@
         <v>43</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
@@ -4556,7 +4552,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4579,16 +4575,16 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4614,14 +4610,14 @@
         <v>43</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>43</v>
       </c>
@@ -4638,7 +4634,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>55</v>
@@ -4650,33 +4646,33 @@
         <v>43</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4699,13 +4695,13 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4756,7 +4752,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>55</v>
@@ -4768,33 +4764,33 @@
         <v>43</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>276</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4817,19 +4813,19 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>43</v>
@@ -4878,7 +4874,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>44</v>
@@ -4890,7 +4886,7 @@
         <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>43</v>
@@ -4899,24 +4895,24 @@
         <v>43</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AM29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO29" t="s" s="2">
+      <c r="AP29" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>284</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4939,19 +4935,19 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>43</v>
@@ -4976,14 +4972,14 @@
         <v>43</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="X30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="X30" t="s" s="2">
+      <c r="Y30" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>43</v>
       </c>
@@ -5000,7 +4996,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -5012,33 +5008,33 @@
         <v>43</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AN30" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO30" t="s" s="2">
+      <c r="AP30" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5061,13 +5057,13 @@
         <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5118,7 +5114,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>55</v>
@@ -5130,16 +5126,16 @@
         <v>43</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>242</v>
+        <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -5156,7 +5152,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5179,13 +5175,13 @@
         <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5236,7 +5232,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5257,7 +5253,7 @@
         <v>43</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>43</v>
@@ -5274,11 +5270,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5297,16 +5293,16 @@
         <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5356,7 +5352,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>44</v>
@@ -5368,7 +5364,7 @@
         <v>43</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>43</v>
@@ -5377,7 +5373,7 @@
         <v>43</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>43</v>
@@ -5394,11 +5390,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5417,19 +5413,19 @@
         <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="M34" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>43</v>
@@ -5478,7 +5474,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>44</v>
@@ -5490,7 +5486,7 @@
         <v>43</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>43</v>
@@ -5499,7 +5495,7 @@
         <v>43</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>43</v>
@@ -5516,7 +5512,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5539,13 +5535,13 @@
         <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5596,7 +5592,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>55</v>
@@ -5608,33 +5604,33 @@
         <v>43</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AN35" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO35" t="s" s="2">
+      <c r="AP35" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>313</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5657,16 +5653,16 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5692,14 +5688,14 @@
         <v>43</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>43</v>
       </c>
@@ -5716,7 +5712,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
@@ -5728,33 +5724,33 @@
         <v>43</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP36" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5777,16 +5773,16 @@
         <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5836,7 +5832,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
@@ -5848,7 +5844,7 @@
         <v>43</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>242</v>
+        <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>43</v>
@@ -5857,7 +5853,7 @@
         <v>43</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>43</v>
@@ -5874,7 +5870,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5897,13 +5893,13 @@
         <v>43</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5954,7 +5950,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>44</v>
@@ -5975,7 +5971,7 @@
         <v>43</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>43</v>
@@ -5992,11 +5988,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6015,16 +6011,16 @@
         <v>43</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="M39" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6074,7 +6070,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>44</v>
@@ -6086,7 +6082,7 @@
         <v>43</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>43</v>
@@ -6095,7 +6091,7 @@
         <v>43</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>43</v>
@@ -6112,11 +6108,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6135,19 +6131,19 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="M40" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>43</v>
@@ -6196,7 +6192,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>44</v>
@@ -6208,7 +6204,7 @@
         <v>43</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>43</v>
@@ -6217,7 +6213,7 @@
         <v>43</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>43</v>
@@ -6234,7 +6230,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6257,13 +6253,13 @@
         <v>43</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6314,7 +6310,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
@@ -6326,22 +6322,22 @@
         <v>43</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>43</v>
@@ -6352,7 +6348,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6375,16 +6371,16 @@
         <v>43</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6410,14 +6406,14 @@
         <v>43</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>43</v>
       </c>
@@ -6434,7 +6430,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>44</v>
@@ -6446,33 +6442,33 @@
         <v>43</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP42" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6495,13 +6491,13 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6552,7 +6548,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>44</v>
@@ -6564,33 +6560,33 @@
         <v>43</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP43" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>356</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6613,13 +6609,13 @@
         <v>43</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6646,14 +6642,14 @@
         <v>43</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>361</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>43</v>
       </c>
@@ -6670,7 +6666,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>44</v>
@@ -6682,33 +6678,33 @@
         <v>43</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP44" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>365</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6731,19 +6727,19 @@
         <v>43</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>43</v>
@@ -6768,14 +6764,14 @@
         <v>43</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>43</v>
       </c>
@@ -6792,7 +6788,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>44</v>
@@ -6804,19 +6800,19 @@
         <v>43</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AL45" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="AM45" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>43</v>
@@ -6825,12 +6821,12 @@
         <v>43</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6853,13 +6849,13 @@
         <v>43</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6910,7 +6906,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>44</v>
@@ -6922,19 +6918,19 @@
         <v>43</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>43</v>
@@ -6943,12 +6939,12 @@
         <v>43</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6971,16 +6967,16 @@
         <v>43</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7030,7 +7026,7 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>44</v>
@@ -7042,28 +7038,28 @@
         <v>43</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AP47" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
   </sheetData>
